--- a/data/bga-metadatos.xlsx
+++ b/data/bga-metadatos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\bga-cat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95598D3E-AB01-4FF0-9721-8313A493A8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1F07B-7630-4BDE-B191-0E3143FC872D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="4275" windowWidth="14400" windowHeight="7875" xr2:uid="{272DE102-2D2C-4682-BDB1-EFDBE3E5D1D6}"/>
+    <workbookView xWindow="960" yWindow="5130" windowWidth="18120" windowHeight="6120" xr2:uid="{272DE102-2D2C-4682-BDB1-EFDBE3E5D1D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Obras" sheetId="1" r:id="rId1"/>
+    <sheet name="Referentes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Título</t>
   </si>
@@ -54,15 +55,9 @@
     <t>Los Suicidas del Sisga No 1</t>
   </si>
   <si>
-    <t>Título del referente</t>
-  </si>
-  <si>
     <t>Periódico</t>
   </si>
   <si>
-    <t>Fecha referente</t>
-  </si>
-  <si>
     <t>Doble suicidio en "El Sisga"</t>
   </si>
   <si>
@@ -81,19 +76,16 @@
     <t>el-paraiso.jpg</t>
   </si>
   <si>
+    <t>Una indígena y su hijo murieron en persecución</t>
+  </si>
+  <si>
     <t>Mayo 24 del 96</t>
   </si>
   <si>
-    <t>Archivo referente</t>
-  </si>
-  <si>
     <t>doble-suicidio-el-tiempo.jpg</t>
   </si>
   <si>
-    <t>Una indígena y su hijo murieron en persecución; Láminas de paisajes latinoamericanos</t>
-  </si>
-  <si>
-    <t>indigena-hijo-el-tiempo.jpg, laminas-paisajes.jpg</t>
+    <t>indigena-hijo-el-tiempo.jpg</t>
   </si>
   <si>
     <t>Zócalo de la tragedia</t>
@@ -108,10 +100,16 @@
     <t>ocalo-tragedia.jpg</t>
   </si>
   <si>
-    <t>xmilitar Mata a la Esposa de su Amigo y se Suicida</t>
-  </si>
-  <si>
     <t>exmilitar-mata-esposa.jpg</t>
+  </si>
+  <si>
+    <t>Exmilitar Mata a la Esposa de su Amigo y se Suicida</t>
+  </si>
+  <si>
+    <t>Láminas de paisajes latinoamericanos</t>
+  </si>
+  <si>
+    <t>laminas-paisajes.jpg</t>
   </si>
 </sst>
 </file>
@@ -472,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AF8ED5-9878-4D6C-8C12-C139572C4746}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,12 +483,9 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,20 +501,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -535,73 +518,121 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3">
         <v>1997</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1983</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F123C9-BD8E-4EC9-87AF-F0463D0FBE05}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/bga-metadatos.xlsx
+++ b/data/bga-metadatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\bga-cat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1F07B-7630-4BDE-B191-0E3143FC872D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE38C29-4CA6-44B7-A1C4-38054C36D670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="5130" windowWidth="18120" windowHeight="6120" xr2:uid="{272DE102-2D2C-4682-BDB1-EFDBE3E5D1D6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Título</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>laminas-paisajes.jpg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Referentes</t>
   </si>
 </sst>
 </file>
@@ -470,87 +476,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AF8ED5-9878-4D6C-8C12-C139572C4746}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1965</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1997</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1983</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +591,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F123C9-BD8E-4EC9-87AF-F0463D0FBE05}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -569,66 +599,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/bga-metadatos.xlsx
+++ b/data/bga-metadatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\bga-cat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE38C29-4CA6-44B7-A1C4-38054C36D670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6662AF5-4C3C-439F-BF19-497FCDD1AA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5130" windowWidth="18120" windowHeight="6120" xr2:uid="{272DE102-2D2C-4682-BDB1-EFDBE3E5D1D6}"/>
+    <workbookView xWindow="765" yWindow="120" windowWidth="18000" windowHeight="4770" xr2:uid="{272DE102-2D2C-4682-BDB1-EFDBE3E5D1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Obras" sheetId="1" r:id="rId1"/>
@@ -26,26 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Dimensiones</t>
-  </si>
-  <si>
-    <t>Técnica</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Archivo</t>
   </si>
   <si>
-    <t>120x100cm</t>
-  </si>
-  <si>
     <t>Óleo sobre lienzo</t>
   </si>
   <si>
@@ -55,33 +40,21 @@
     <t>Los Suicidas del Sisga No 1</t>
   </si>
   <si>
-    <t>Periódico</t>
-  </si>
-  <si>
     <t>Doble suicidio en "El Sisga"</t>
   </si>
   <si>
-    <t>Junio 29 1965</t>
-  </si>
-  <si>
     <t>El Tiempo</t>
   </si>
   <si>
     <t>El Paraíso</t>
   </si>
   <si>
-    <t>160x45 cm</t>
-  </si>
-  <si>
     <t>el-paraiso.jpg</t>
   </si>
   <si>
     <t>Una indígena y su hijo murieron en persecución</t>
   </si>
   <si>
-    <t>Mayo 24 del 96</t>
-  </si>
-  <si>
     <t>doble-suicidio-el-tiempo.jpg</t>
   </si>
   <si>
@@ -91,15 +64,9 @@
     <t>Zócalo de la tragedia</t>
   </si>
   <si>
-    <t>100x70</t>
-  </si>
-  <si>
     <t>Tipografía sobre papel</t>
   </si>
   <si>
-    <t>ocalo-tragedia.jpg</t>
-  </si>
-  <si>
     <t>exmilitar-mata-esposa.jpg</t>
   </si>
   <si>
@@ -116,6 +83,33 @@
   </si>
   <si>
     <t>Referentes</t>
+  </si>
+  <si>
+    <t>zocalo-tragedia.jpg</t>
+  </si>
+  <si>
+    <t>Ancho cm</t>
+  </si>
+  <si>
+    <t>Alto cm</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Beatriz González</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Format.medium</t>
   </si>
 </sst>
 </file>
@@ -159,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,110 +471,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AF8ED5-9878-4D6C-8C12-C139572C4746}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1965</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
+      <c r="E2">
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>1997</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>1983</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
     </row>
@@ -606,19 +626,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>23922</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35209</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
